--- a/Ergebnis.xlsx
+++ b/Ergebnis.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1860" yWindow="1860" windowWidth="14400" windowHeight="7360" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Wochenplan" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Wochenplan" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -54,6 +54,10 @@
       <sz val="10"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b val="1"/>
+    </font>
+    <font/>
   </fonts>
   <fills count="10">
     <fill>
@@ -94,14 +98,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFF2CC"/>
-        <bgColor rgb="00FFF2CC"/>
+        <fgColor rgb="00E2EFDA"/>
+        <bgColor rgb="00E2EFDA"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E2EFDA"/>
-        <bgColor rgb="00E2EFDA"/>
+        <fgColor rgb="00FFF2CC"/>
+        <bgColor rgb="00FFF2CC"/>
       </patternFill>
     </fill>
     <fill>
@@ -111,7 +115,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -371,30 +375,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="dotted">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="dotted">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
       <top style="dotted">
         <color rgb="FF000000"/>
       </top>
@@ -521,11 +503,101 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="00000000"/>
+      </left>
+      <top style="medium">
+        <color rgb="00000000"/>
+      </top>
+    </border>
+    <border>
+      <right style="medium">
+        <color rgb="00000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="00000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="00000000"/>
+      </left>
+      <top style="hair">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="00000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="medium">
+        <color rgb="00000000"/>
+      </right>
+      <top style="hair">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="00000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="00000000"/>
+      </left>
+      <bottom style="medium">
+        <color rgb="00000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="medium">
+        <color rgb="00000000"/>
+      </right>
+      <bottom style="medium">
+        <color rgb="00000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="00000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="00000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="00000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="00000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="00000000"/>
+      </right>
+      <top style="hair">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="00000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="00000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="00000000"/>
+      </right>
+      <bottom style="medium">
+        <color rgb="00000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -563,10 +635,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
@@ -578,239 +650,231 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="23" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="20" fontId="2" fillId="5" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="2" fillId="5" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="20" fontId="2" fillId="5" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="29" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="34" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="35" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="36" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="35" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="37" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="38" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="38" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="35" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="34" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="35" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="36" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="39" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="39" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="34" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="35" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="36" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="40" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="40" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="37" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="38" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="40" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="40" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="39" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="41" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="41" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="38" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="40" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="40" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="40" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="41" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="36" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -886,6 +950,52 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <twoCellAnchor editAs="oneCell">
+    <from>
+      <col>10</col>
+      <colOff>447675</colOff>
+      <row>0</row>
+      <rowOff>561975</rowOff>
+    </from>
+    <to>
+      <col>14</col>
+      <colOff>381000</colOff>
+      <row>1</row>
+      <rowOff>426816</rowOff>
+    </to>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="2" name="Grafik 1"/>
+        <cNvPicPr>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+        </cNvPicPr>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="6861175" y="561975"/>
+          <a:ext cx="2498725" cy="785591"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </twoCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1185,27 +1295,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Tabelle1">
+  <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="1"/>
+    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A2:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="0"/>
-  <cols>
-    <col width="5.42578125" customWidth="1" min="1" max="1"/>
-    <col width="2" customWidth="1" min="2" max="2"/>
-    <col width="5.42578125" customWidth="1" min="3" max="3"/>
-    <col width="15.7109375" customWidth="1" min="4" max="13"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" ht="50.1" customHeight="1" thickBot="1"/>
-    <row r="2" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A2" s="1" t="n"/>
+    <row r="1" ht="72.75" customHeight="1" thickBot="1"/>
+    <row r="2" ht="44" customHeight="1" thickBot="1">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Helpdeskplan für KW 22 von 29.05.2023 bis 02.06.2023.</t>
+        </is>
+      </c>
       <c r="C2" s="2" t="n"/>
       <c r="E2" s="2" t="n"/>
       <c r="H2" s="3" t="inlineStr">
@@ -1226,8 +1334,8 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1" thickBot="1"/>
-    <row r="4" ht="15.75" customHeight="1" thickBot="1">
+    <row r="3" ht="15" customHeight="1" thickBot="1"/>
+    <row r="4" ht="15" customHeight="1" thickBot="1">
       <c r="A4" s="6" t="inlineStr">
         <is>
           <t>Zeit</t>
@@ -1235,36 +1343,36 @@
       </c>
       <c r="B4" s="7" t="n"/>
       <c r="C4" s="8" t="n"/>
-      <c r="D4" s="92" t="inlineStr">
+      <c r="D4" s="56" t="inlineStr">
         <is>
           <t>Montag</t>
         </is>
       </c>
-      <c r="E4" s="93" t="n"/>
-      <c r="F4" s="92" t="inlineStr">
+      <c r="E4" s="57" t="n"/>
+      <c r="F4" s="56" t="inlineStr">
         <is>
           <t>Dienstag</t>
         </is>
       </c>
-      <c r="G4" s="93" t="n"/>
-      <c r="H4" s="92" t="inlineStr">
+      <c r="G4" s="57" t="n"/>
+      <c r="H4" s="56" t="inlineStr">
         <is>
           <t>Mittwoch</t>
         </is>
       </c>
-      <c r="I4" s="93" t="n"/>
-      <c r="J4" s="92" t="inlineStr">
+      <c r="I4" s="57" t="n"/>
+      <c r="J4" s="56" t="inlineStr">
         <is>
           <t>Donnerstag</t>
         </is>
       </c>
-      <c r="K4" s="93" t="n"/>
-      <c r="L4" s="92" t="inlineStr">
+      <c r="K4" s="57" t="n"/>
+      <c r="L4" s="56" t="inlineStr">
         <is>
           <t>Freitag</t>
         </is>
       </c>
-      <c r="M4" s="93" t="n"/>
+      <c r="M4" s="57" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="11" t="n">
@@ -1280,10 +1388,18 @@
       </c>
       <c r="D5" s="14" t="n"/>
       <c r="E5" s="15" t="n"/>
-      <c r="F5" s="14" t="n"/>
-      <c r="G5" s="15" t="n"/>
-      <c r="H5" s="14" t="n"/>
-      <c r="I5" s="15" t="n"/>
+      <c r="F5" s="58" t="inlineStr">
+        <is>
+          <t>Jennifer Weißenberger</t>
+        </is>
+      </c>
+      <c r="G5" s="59" t="n"/>
+      <c r="H5" s="58" t="inlineStr">
+        <is>
+          <t>Paul Fotso</t>
+        </is>
+      </c>
+      <c r="I5" s="59" t="n"/>
       <c r="J5" s="14" t="n"/>
       <c r="K5" s="15" t="n"/>
       <c r="L5" s="14" t="n"/>
@@ -1303,17 +1419,29 @@
       </c>
       <c r="D6" s="19" t="n"/>
       <c r="E6" s="20" t="n"/>
-      <c r="F6" s="19" t="n"/>
-      <c r="G6" s="20" t="n"/>
-      <c r="H6" s="21" t="n"/>
-      <c r="I6" s="22" t="n"/>
-      <c r="J6" s="21" t="n"/>
-      <c r="K6" s="22" t="n"/>
-      <c r="L6" s="19" t="n"/>
-      <c r="M6" s="20" t="n"/>
+      <c r="F6" s="60" t="inlineStr">
+        <is>
+          <t>Mathe 1+2</t>
+        </is>
+      </c>
+      <c r="G6" s="61" t="n"/>
+      <c r="H6" s="60" t="inlineStr">
+        <is>
+          <t>Mathe 1+2</t>
+        </is>
+      </c>
+      <c r="I6" s="61" t="n"/>
+      <c r="J6" s="19" t="n"/>
+      <c r="K6" s="20" t="n"/>
+      <c r="L6" s="58" t="inlineStr">
+        <is>
+          <t>Paul Borgetto</t>
+        </is>
+      </c>
+      <c r="M6" s="59" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="23" t="n">
+      <c r="A7" s="16" t="n">
         <v>0.375</v>
       </c>
       <c r="B7" s="17" t="inlineStr">
@@ -1324,19 +1452,23 @@
       <c r="C7" s="18" t="n">
         <v>0.3958333333333333</v>
       </c>
-      <c r="D7" s="21" t="n"/>
-      <c r="E7" s="22" t="n"/>
-      <c r="F7" s="21" t="n"/>
-      <c r="G7" s="22" t="n"/>
-      <c r="H7" s="24" t="n"/>
-      <c r="I7" s="25" t="n"/>
-      <c r="J7" s="21" t="n"/>
-      <c r="K7" s="22" t="n"/>
-      <c r="L7" s="21" t="n"/>
-      <c r="M7" s="22" t="n"/>
+      <c r="D7" s="19" t="n"/>
+      <c r="E7" s="20" t="n"/>
+      <c r="F7" s="62" t="n"/>
+      <c r="G7" s="61" t="n"/>
+      <c r="H7" s="62" t="n"/>
+      <c r="I7" s="61" t="n"/>
+      <c r="J7" s="19" t="n"/>
+      <c r="K7" s="20" t="n"/>
+      <c r="L7" s="60" t="inlineStr">
+        <is>
+          <t>Mathe 1+2</t>
+        </is>
+      </c>
+      <c r="M7" s="61" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="23" t="n">
+      <c r="A8" s="16" t="n">
         <v>0.3958333333333333</v>
       </c>
       <c r="B8" s="17" t="inlineStr">
@@ -1347,19 +1479,27 @@
       <c r="C8" s="18" t="n">
         <v>0.4166666666666667</v>
       </c>
-      <c r="D8" s="26" t="n"/>
-      <c r="E8" s="27" t="n"/>
-      <c r="F8" s="28" t="n"/>
-      <c r="G8" s="29" t="n"/>
-      <c r="H8" s="30" t="n"/>
-      <c r="I8" s="31" t="n"/>
-      <c r="J8" s="32" t="n"/>
-      <c r="K8" s="33" t="n"/>
-      <c r="L8" s="34" t="n"/>
-      <c r="M8" s="35" t="n"/>
+      <c r="D8" s="23" t="n"/>
+      <c r="E8" s="24" t="n"/>
+      <c r="F8" s="63" t="inlineStr">
+        <is>
+          <t>G007</t>
+        </is>
+      </c>
+      <c r="G8" s="64" t="n"/>
+      <c r="H8" s="63" t="inlineStr">
+        <is>
+          <t>G007</t>
+        </is>
+      </c>
+      <c r="I8" s="65" t="n"/>
+      <c r="J8" s="29" t="n"/>
+      <c r="K8" s="30" t="n"/>
+      <c r="L8" s="62" t="n"/>
+      <c r="M8" s="61" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="23" t="n">
+      <c r="A9" s="16" t="n">
         <v>0.4166666666666667</v>
       </c>
       <c r="B9" s="17" t="inlineStr">
@@ -1367,22 +1507,22 @@
           <t>-</t>
         </is>
       </c>
-      <c r="C9" s="36" t="n">
+      <c r="C9" s="18" t="n">
         <v>0.4375</v>
       </c>
-      <c r="D9" s="94" t="n"/>
-      <c r="E9" s="95" t="n"/>
-      <c r="F9" s="96" t="n"/>
-      <c r="G9" s="95" t="n"/>
-      <c r="H9" s="97" t="n"/>
-      <c r="I9" s="98" t="n"/>
-      <c r="J9" s="40" t="n"/>
-      <c r="K9" s="25" t="n"/>
-      <c r="L9" s="41" t="n"/>
-      <c r="M9" s="25" t="n"/>
+      <c r="D9" s="31" t="n"/>
+      <c r="E9" s="32" t="n"/>
+      <c r="F9" s="33" t="n"/>
+      <c r="G9" s="32" t="n"/>
+      <c r="H9" s="31" t="n"/>
+      <c r="I9" s="22" t="n"/>
+      <c r="J9" s="31" t="n"/>
+      <c r="K9" s="22" t="n"/>
+      <c r="L9" s="66" t="n"/>
+      <c r="M9" s="61" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="23" t="n">
+      <c r="A10" s="16" t="n">
         <v>0.4375</v>
       </c>
       <c r="B10" s="17" t="inlineStr">
@@ -1390,22 +1530,28 @@
           <t>-</t>
         </is>
       </c>
-      <c r="C10" s="36" t="n">
+      <c r="C10" s="18" t="n">
         <v>0.4583333333333333</v>
       </c>
-      <c r="D10" s="99" t="n"/>
-      <c r="E10" s="100" t="n"/>
-      <c r="F10" s="101" t="n"/>
-      <c r="G10" s="102" t="n"/>
-      <c r="H10" s="103" t="n"/>
-      <c r="I10" s="98" t="n"/>
-      <c r="J10" s="32" t="n"/>
-      <c r="K10" s="33" t="n"/>
-      <c r="L10" s="24" t="n"/>
-      <c r="M10" s="25" t="n"/>
+      <c r="D10" s="21" t="n"/>
+      <c r="E10" s="22" t="n"/>
+      <c r="F10" s="67" t="inlineStr">
+        <is>
+          <t>&amp; Chemie</t>
+        </is>
+      </c>
+      <c r="G10" s="32" t="n"/>
+      <c r="H10" s="68" t="n">
+        <v/>
+      </c>
+      <c r="I10" s="22" t="n"/>
+      <c r="J10" s="29" t="n"/>
+      <c r="K10" s="30" t="n"/>
+      <c r="L10" s="62" t="n"/>
+      <c r="M10" s="61" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="23" t="n">
+      <c r="A11" s="16" t="n">
         <v>0.4583333333333333</v>
       </c>
       <c r="B11" s="17" t="inlineStr">
@@ -1413,22 +1559,30 @@
           <t>-</t>
         </is>
       </c>
-      <c r="C11" s="36" t="n">
+      <c r="C11" s="18" t="n">
         <v>0.4791666666666667</v>
       </c>
-      <c r="D11" s="104" t="n"/>
-      <c r="E11" s="105" t="n"/>
-      <c r="F11" s="106" t="n"/>
-      <c r="G11" s="100" t="n"/>
-      <c r="H11" s="107" t="n"/>
-      <c r="I11" s="108" t="n"/>
-      <c r="J11" s="47" t="n"/>
-      <c r="K11" s="48" t="n"/>
-      <c r="L11" s="21" t="n"/>
-      <c r="M11" s="22" t="n"/>
+      <c r="D11" s="29" t="n"/>
+      <c r="E11" s="28" t="n"/>
+      <c r="F11" s="69" t="inlineStr">
+        <is>
+          <t>Paul Borgetto</t>
+        </is>
+      </c>
+      <c r="G11" s="70" t="n"/>
+      <c r="H11" s="21" t="n"/>
+      <c r="I11" s="32" t="n"/>
+      <c r="J11" s="21" t="n"/>
+      <c r="K11" s="22" t="n"/>
+      <c r="L11" s="63" t="inlineStr">
+        <is>
+          <t>G007</t>
+        </is>
+      </c>
+      <c r="M11" s="64" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="23" t="n">
+      <c r="A12" s="16" t="n">
         <v>0.4791666666666667</v>
       </c>
       <c r="B12" s="17" t="inlineStr">
@@ -1436,22 +1590,38 @@
           <t>-</t>
         </is>
       </c>
-      <c r="C12" s="36" t="n">
+      <c r="C12" s="18" t="n">
         <v>0.5</v>
       </c>
-      <c r="D12" s="99" t="n"/>
-      <c r="E12" s="100" t="n"/>
-      <c r="F12" s="96" t="n"/>
-      <c r="G12" s="100" t="n"/>
-      <c r="H12" s="97" t="n"/>
-      <c r="I12" s="98" t="n"/>
-      <c r="J12" s="40" t="n"/>
-      <c r="K12" s="38" t="n"/>
-      <c r="L12" s="21" t="n"/>
-      <c r="M12" s="22" t="n"/>
+      <c r="D12" s="21" t="n"/>
+      <c r="E12" s="22" t="n"/>
+      <c r="F12" s="71" t="inlineStr">
+        <is>
+          <t>Mathe 1+2</t>
+        </is>
+      </c>
+      <c r="G12" s="72" t="n"/>
+      <c r="H12" s="73" t="inlineStr">
+        <is>
+          <t>Lena Schmidt</t>
+        </is>
+      </c>
+      <c r="I12" s="74" t="inlineStr">
+        <is>
+          <t>Paul Borgetto</t>
+        </is>
+      </c>
+      <c r="J12" s="69" t="inlineStr">
+        <is>
+          <t>Paul Borgetto</t>
+        </is>
+      </c>
+      <c r="K12" s="75" t="n"/>
+      <c r="L12" s="19" t="n"/>
+      <c r="M12" s="20" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="23" t="n">
+      <c r="A13" s="16" t="n">
         <v>0.5</v>
       </c>
       <c r="B13" s="17" t="inlineStr">
@@ -1459,22 +1629,38 @@
           <t>-</t>
         </is>
       </c>
-      <c r="C13" s="36" t="n">
+      <c r="C13" s="18" t="n">
         <v>0.5208333333333334</v>
       </c>
-      <c r="D13" s="49" t="n"/>
-      <c r="E13" s="50" t="n"/>
-      <c r="F13" s="109" t="n"/>
-      <c r="G13" s="110" t="n"/>
-      <c r="H13" s="53" t="n"/>
-      <c r="I13" s="54" t="n"/>
-      <c r="J13" s="55" t="n"/>
-      <c r="K13" s="52" t="n"/>
-      <c r="L13" s="49" t="n"/>
-      <c r="M13" s="50" t="n"/>
+      <c r="D13" s="36" t="n"/>
+      <c r="E13" s="37" t="n"/>
+      <c r="F13" s="76" t="n"/>
+      <c r="G13" s="77" t="n"/>
+      <c r="H13" s="78" t="inlineStr">
+        <is>
+          <t>Mathe</t>
+        </is>
+      </c>
+      <c r="I13" s="79" t="inlineStr">
+        <is>
+          <t>Mathe 1+2</t>
+        </is>
+      </c>
+      <c r="J13" s="71" t="inlineStr">
+        <is>
+          <t>Mathe 1+2</t>
+        </is>
+      </c>
+      <c r="K13" s="77" t="n"/>
+      <c r="L13" s="80" t="inlineStr">
+        <is>
+          <t>&amp; Physik</t>
+        </is>
+      </c>
+      <c r="M13" s="37" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="23" t="n">
+      <c r="A14" s="16" t="n">
         <v>0.5208333333333334</v>
       </c>
       <c r="B14" s="17" t="inlineStr">
@@ -1482,22 +1668,26 @@
           <t>-</t>
         </is>
       </c>
-      <c r="C14" s="36" t="n">
+      <c r="C14" s="18" t="n">
         <v>0.5416666666666666</v>
       </c>
-      <c r="D14" s="56" t="n"/>
-      <c r="E14" s="57" t="n"/>
-      <c r="F14" s="111" t="n"/>
-      <c r="G14" s="112" t="n"/>
-      <c r="H14" s="59" t="n"/>
-      <c r="I14" s="33" t="n"/>
-      <c r="J14" s="37" t="n"/>
-      <c r="K14" s="25" t="n"/>
-      <c r="L14" s="40" t="n"/>
-      <c r="M14" s="25" t="n"/>
+      <c r="D14" s="21" t="n"/>
+      <c r="E14" s="22" t="n"/>
+      <c r="F14" s="81" t="inlineStr">
+        <is>
+          <t>online</t>
+        </is>
+      </c>
+      <c r="G14" s="82" t="n"/>
+      <c r="H14" s="83" t="n"/>
+      <c r="I14" s="84" t="n"/>
+      <c r="J14" s="76" t="n"/>
+      <c r="K14" s="72" t="n"/>
+      <c r="L14" s="31" t="n"/>
+      <c r="M14" s="22" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="23" t="n">
+      <c r="A15" s="16" t="n">
         <v>0.5416666666666666</v>
       </c>
       <c r="B15" s="17" t="inlineStr">
@@ -1505,45 +1695,73 @@
           <t>-</t>
         </is>
       </c>
-      <c r="C15" s="36" t="n">
+      <c r="C15" s="18" t="n">
         <v>0.5625</v>
       </c>
-      <c r="D15" s="56" t="n"/>
-      <c r="E15" s="57" t="n"/>
-      <c r="F15" s="103" t="n"/>
-      <c r="G15" s="113" t="n"/>
-      <c r="H15" s="40" t="n"/>
-      <c r="I15" s="25" t="n"/>
-      <c r="J15" s="114" t="n"/>
-      <c r="K15" s="115" t="n"/>
-      <c r="L15" s="41" t="n"/>
-      <c r="M15" s="25" t="n"/>
+      <c r="D15" s="21" t="n"/>
+      <c r="E15" s="22" t="n"/>
+      <c r="F15" s="73" t="inlineStr">
+        <is>
+          <t>Marco Hübner</t>
+        </is>
+      </c>
+      <c r="G15" s="85" t="inlineStr">
+        <is>
+          <t>Màrton Vörös</t>
+        </is>
+      </c>
+      <c r="H15" s="86" t="inlineStr">
+        <is>
+          <t>G007</t>
+        </is>
+      </c>
+      <c r="I15" s="87" t="inlineStr">
+        <is>
+          <t>online</t>
+        </is>
+      </c>
+      <c r="J15" s="81" t="inlineStr">
+        <is>
+          <t>online</t>
+        </is>
+      </c>
+      <c r="K15" s="88" t="n"/>
+      <c r="L15" s="34" t="n"/>
+      <c r="M15" s="22" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="61" t="n">
+      <c r="A16" s="16" t="n">
         <v>0.5625</v>
       </c>
-      <c r="B16" s="62" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C16" s="63" t="n">
+      <c r="B16" s="17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C16" s="18" t="n">
         <v>0.5833333333333334</v>
       </c>
-      <c r="D16" s="51" t="n"/>
-      <c r="E16" s="64" t="n"/>
-      <c r="F16" s="97" t="n"/>
-      <c r="G16" s="98" t="n"/>
-      <c r="H16" s="24" t="n"/>
-      <c r="I16" s="25" t="n"/>
-      <c r="J16" s="116" t="n"/>
-      <c r="K16" s="117" t="n"/>
-      <c r="L16" s="24" t="n"/>
-      <c r="M16" s="25" t="n"/>
+      <c r="D16" s="38" t="n"/>
+      <c r="E16" s="39" t="n"/>
+      <c r="F16" s="78" t="inlineStr">
+        <is>
+          <t>&amp; Physik</t>
+        </is>
+      </c>
+      <c r="G16" s="89" t="inlineStr">
+        <is>
+          <t>Finanzmathe</t>
+        </is>
+      </c>
+      <c r="H16" s="21" t="n"/>
+      <c r="I16" s="22" t="n"/>
+      <c r="J16" s="29" t="n"/>
+      <c r="K16" s="22" t="n"/>
+      <c r="L16" s="21" t="n"/>
+      <c r="M16" s="22" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="23" t="n">
+      <c r="A17" s="16" t="n">
         <v>0.5833333333333334</v>
       </c>
       <c r="B17" s="17" t="inlineStr">
@@ -1551,22 +1769,38 @@
           <t>-</t>
         </is>
       </c>
-      <c r="C17" s="36" t="n">
+      <c r="C17" s="18" t="n">
         <v>0.6041666666666666</v>
       </c>
-      <c r="D17" s="24" t="n"/>
-      <c r="E17" s="98" t="n"/>
-      <c r="F17" s="37" t="n"/>
-      <c r="G17" s="65" t="n"/>
-      <c r="H17" s="37" t="n"/>
-      <c r="I17" s="38" t="n"/>
-      <c r="J17" s="116" t="n"/>
-      <c r="K17" s="118" t="n"/>
-      <c r="L17" s="21" t="n"/>
-      <c r="M17" s="22" t="n"/>
+      <c r="D17" s="21" t="n"/>
+      <c r="E17" s="22" t="n"/>
+      <c r="F17" s="83" t="n"/>
+      <c r="G17" s="90" t="n"/>
+      <c r="H17" s="74" t="inlineStr">
+        <is>
+          <t>Màrton Vörös</t>
+        </is>
+      </c>
+      <c r="I17" s="73" t="inlineStr">
+        <is>
+          <t>Michelle Kogler</t>
+        </is>
+      </c>
+      <c r="J17" s="58" t="inlineStr">
+        <is>
+          <t>Lena Schmidt</t>
+        </is>
+      </c>
+      <c r="K17" s="59" t="n"/>
+      <c r="L17" s="58" t="inlineStr">
+        <is>
+          <t>Paul Fotso</t>
+        </is>
+      </c>
+      <c r="M17" s="59" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="23" t="n">
+      <c r="A18" s="16" t="n">
         <v>0.6041666666666666</v>
       </c>
       <c r="B18" s="17" t="inlineStr">
@@ -1577,19 +1811,39 @@
       <c r="C18" s="18" t="n">
         <v>0.625</v>
       </c>
-      <c r="D18" s="94" t="n"/>
-      <c r="E18" s="119" t="n"/>
-      <c r="F18" s="47" t="n"/>
-      <c r="G18" s="66" t="n"/>
-      <c r="H18" s="67" t="n"/>
-      <c r="I18" s="50" t="n"/>
-      <c r="J18" s="120" t="n"/>
-      <c r="K18" s="121" t="n"/>
-      <c r="L18" s="21" t="n"/>
-      <c r="M18" s="22" t="n"/>
+      <c r="D18" s="31" t="n"/>
+      <c r="E18" s="32" t="n"/>
+      <c r="F18" s="91" t="n"/>
+      <c r="G18" s="92" t="inlineStr">
+        <is>
+          <t>II-02</t>
+        </is>
+      </c>
+      <c r="H18" s="79" t="inlineStr">
+        <is>
+          <t>Finanzmathe</t>
+        </is>
+      </c>
+      <c r="I18" s="78" t="inlineStr">
+        <is>
+          <t>Mathe 1+2</t>
+        </is>
+      </c>
+      <c r="J18" s="60" t="inlineStr">
+        <is>
+          <t>Mathe</t>
+        </is>
+      </c>
+      <c r="K18" s="93" t="n"/>
+      <c r="L18" s="60" t="inlineStr">
+        <is>
+          <t>Mathe 1+2</t>
+        </is>
+      </c>
+      <c r="M18" s="61" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="23" t="n">
+      <c r="A19" s="16" t="n">
         <v>0.625</v>
       </c>
       <c r="B19" s="17" t="inlineStr">
@@ -1600,61 +1854,91 @@
       <c r="C19" s="18" t="n">
         <v>0.6458333333333334</v>
       </c>
-      <c r="D19" s="68" t="n"/>
-      <c r="E19" s="122" t="n"/>
-      <c r="F19" s="24" t="n"/>
-      <c r="G19" s="70" t="n"/>
-      <c r="H19" s="55" t="n"/>
-      <c r="I19" s="50" t="n"/>
-      <c r="J19" s="24" t="n"/>
-      <c r="K19" s="25" t="n"/>
-      <c r="L19" s="19" t="n"/>
-      <c r="M19" s="20" t="n"/>
+      <c r="D19" s="42" t="n"/>
+      <c r="E19" s="43" t="n"/>
+      <c r="F19" s="86" t="inlineStr">
+        <is>
+          <t>G007</t>
+        </is>
+      </c>
+      <c r="G19" s="44" t="n"/>
+      <c r="H19" s="84" t="n"/>
+      <c r="I19" s="91" t="n"/>
+      <c r="J19" s="62" t="n"/>
+      <c r="K19" s="61" t="n"/>
+      <c r="L19" s="62" t="n"/>
+      <c r="M19" s="61" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="61" t="n">
+      <c r="A20" s="16" t="n">
         <v>0.6458333333333334</v>
       </c>
-      <c r="B20" s="62" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C20" s="71" t="n">
+      <c r="B20" s="17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C20" s="18" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="D20" s="123" t="n"/>
-      <c r="E20" s="124" t="n"/>
-      <c r="F20" s="40" t="n"/>
-      <c r="G20" s="43" t="n"/>
-      <c r="H20" s="24" t="n"/>
-      <c r="I20" s="57" t="n"/>
-      <c r="J20" s="47" t="n"/>
-      <c r="K20" s="57" t="n"/>
-      <c r="L20" s="21" t="n"/>
-      <c r="M20" s="22" t="n"/>
+      <c r="D20" s="19" t="n"/>
+      <c r="E20" s="20" t="n"/>
+      <c r="F20" s="31" t="n"/>
+      <c r="G20" s="94" t="n">
+        <v/>
+      </c>
+      <c r="H20" s="87" t="inlineStr">
+        <is>
+          <t>online</t>
+        </is>
+      </c>
+      <c r="I20" s="86" t="inlineStr">
+        <is>
+          <t>G007</t>
+        </is>
+      </c>
+      <c r="J20" s="63" t="inlineStr">
+        <is>
+          <t>G007</t>
+        </is>
+      </c>
+      <c r="K20" s="64" t="n"/>
+      <c r="L20" s="63" t="inlineStr">
+        <is>
+          <t>G007</t>
+        </is>
+      </c>
+      <c r="M20" s="64" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="61" t="n">
+      <c r="A21" s="16" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="B21" s="62" t="n"/>
-      <c r="C21" s="71" t="n">
+      <c r="B21" s="17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C21" s="18" t="n">
         <v>0.6875</v>
       </c>
-      <c r="D21" s="123" t="n"/>
-      <c r="E21" s="124" t="n"/>
-      <c r="F21" s="67" t="n"/>
-      <c r="G21" s="72" t="n"/>
-      <c r="H21" s="56" t="n"/>
-      <c r="I21" s="73" t="n"/>
-      <c r="J21" s="40" t="n"/>
-      <c r="K21" s="60" t="n"/>
+      <c r="D21" s="19" t="n"/>
+      <c r="E21" s="20" t="n"/>
+      <c r="F21" s="80" t="inlineStr">
+        <is>
+          <t>&amp; Physik, Chemie</t>
+        </is>
+      </c>
+      <c r="G21" s="37" t="n"/>
+      <c r="H21" s="21" t="n"/>
+      <c r="I21" s="37" t="n"/>
+      <c r="J21" s="31" t="n"/>
+      <c r="K21" s="32" t="n"/>
       <c r="L21" s="19" t="n"/>
       <c r="M21" s="20" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="23" t="n">
+      <c r="A22" s="16" t="n">
         <v>0.6875</v>
       </c>
       <c r="B22" s="17" t="inlineStr">
@@ -1665,19 +1949,29 @@
       <c r="C22" s="18" t="n">
         <v>0.7083333333333334</v>
       </c>
-      <c r="D22" s="99" t="n"/>
-      <c r="E22" s="22" t="n"/>
-      <c r="F22" s="24" t="n"/>
-      <c r="G22" s="38" t="n"/>
-      <c r="H22" s="49" t="n"/>
-      <c r="I22" s="25" t="n"/>
-      <c r="J22" s="49" t="n"/>
-      <c r="K22" s="50" t="n"/>
-      <c r="L22" s="19" t="n"/>
+      <c r="D22" s="19" t="n"/>
+      <c r="E22" s="20" t="n"/>
+      <c r="F22" s="21" t="n"/>
+      <c r="G22" s="32" t="n"/>
+      <c r="H22" s="80" t="n">
+        <v/>
+      </c>
+      <c r="I22" s="94" t="n">
+        <v/>
+      </c>
+      <c r="J22" s="80" t="inlineStr">
+        <is>
+          <t>alle Semester</t>
+        </is>
+      </c>
+      <c r="K22" s="37" t="n"/>
+      <c r="L22" s="95" t="n">
+        <v/>
+      </c>
       <c r="M22" s="20" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="23" t="n">
+      <c r="A23" s="16" t="n">
         <v>0.7083333333333334</v>
       </c>
       <c r="B23" s="17" t="inlineStr">
@@ -1688,19 +1982,19 @@
       <c r="C23" s="18" t="n">
         <v>0.7291666666666666</v>
       </c>
-      <c r="D23" s="21" t="n"/>
-      <c r="E23" s="22" t="n"/>
-      <c r="F23" s="59" t="n"/>
-      <c r="G23" s="31" t="n"/>
-      <c r="H23" s="24" t="n"/>
-      <c r="I23" s="25" t="n"/>
-      <c r="J23" s="24" t="n"/>
-      <c r="K23" s="25" t="n"/>
-      <c r="L23" s="99" t="n"/>
-      <c r="M23" s="100" t="n"/>
+      <c r="D23" s="19" t="n"/>
+      <c r="E23" s="20" t="n"/>
+      <c r="F23" s="27" t="n"/>
+      <c r="G23" s="28" t="n"/>
+      <c r="H23" s="21" t="n"/>
+      <c r="I23" s="22" t="n"/>
+      <c r="J23" s="21" t="n"/>
+      <c r="K23" s="22" t="n"/>
+      <c r="L23" s="19" t="n"/>
+      <c r="M23" s="20" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="23" t="n">
+      <c r="A24" s="16" t="n">
         <v>0.7291666666666666</v>
       </c>
       <c r="B24" s="17" t="inlineStr">
@@ -1713,106 +2007,106 @@
       </c>
       <c r="D24" s="19" t="n"/>
       <c r="E24" s="20" t="n"/>
-      <c r="F24" s="37" t="n"/>
-      <c r="G24" s="25" t="n"/>
-      <c r="H24" s="74" t="n"/>
-      <c r="I24" s="75" t="n"/>
-      <c r="J24" s="56" t="n"/>
-      <c r="K24" s="57" t="n"/>
-      <c r="L24" s="123" t="n"/>
-      <c r="M24" s="125" t="n"/>
+      <c r="F24" s="31" t="n"/>
+      <c r="G24" s="22" t="n"/>
+      <c r="H24" s="29" t="n"/>
+      <c r="I24" s="30" t="n"/>
+      <c r="J24" s="21" t="n"/>
+      <c r="K24" s="22" t="n"/>
+      <c r="L24" s="19" t="n"/>
+      <c r="M24" s="20" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="76" t="n">
+      <c r="A25" s="16" t="n">
         <v>0.75</v>
       </c>
-      <c r="B25" s="77" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C25" s="78" t="n">
+      <c r="B25" s="17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C25" s="18" t="n">
         <v>0.7708333333333334</v>
       </c>
-      <c r="D25" s="79" t="n"/>
-      <c r="E25" s="80" t="n"/>
-      <c r="F25" s="49" t="n"/>
-      <c r="G25" s="50" t="n"/>
-      <c r="H25" s="40" t="n"/>
-      <c r="I25" s="48" t="n"/>
-      <c r="J25" s="74" t="n"/>
-      <c r="K25" s="75" t="n"/>
-      <c r="L25" s="126" t="n"/>
-      <c r="M25" s="127" t="n"/>
+      <c r="D25" s="23" t="n"/>
+      <c r="E25" s="24" t="n"/>
+      <c r="F25" s="36" t="n"/>
+      <c r="G25" s="37" t="n"/>
+      <c r="H25" s="31" t="n"/>
+      <c r="I25" s="22" t="n"/>
+      <c r="J25" s="29" t="n"/>
+      <c r="K25" s="30" t="n"/>
+      <c r="L25" s="23" t="n"/>
+      <c r="M25" s="24" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="76" t="n">
+      <c r="A26" s="16" t="n">
         <v>0.7708333333333334</v>
       </c>
-      <c r="B26" s="77" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C26" s="78" t="n">
+      <c r="B26" s="17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C26" s="18" t="n">
         <v>0.7916666666666666</v>
       </c>
-      <c r="D26" s="79" t="n"/>
-      <c r="E26" s="80" t="n"/>
-      <c r="F26" s="24" t="n"/>
-      <c r="G26" s="25" t="n"/>
-      <c r="H26" s="24" t="n"/>
-      <c r="I26" s="38" t="n"/>
-      <c r="J26" s="74" t="n"/>
-      <c r="K26" s="75" t="n"/>
-      <c r="L26" s="126" t="n"/>
-      <c r="M26" s="127" t="n"/>
+      <c r="D26" s="23" t="n"/>
+      <c r="E26" s="24" t="n"/>
+      <c r="F26" s="21" t="n"/>
+      <c r="G26" s="22" t="n"/>
+      <c r="H26" s="21" t="n"/>
+      <c r="I26" s="32" t="n"/>
+      <c r="J26" s="29" t="n"/>
+      <c r="K26" s="30" t="n"/>
+      <c r="L26" s="23" t="n"/>
+      <c r="M26" s="24" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="76" t="n">
+      <c r="A27" s="16" t="n">
         <v>0.7916666666666666</v>
       </c>
-      <c r="B27" s="77" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C27" s="78" t="n">
+      <c r="B27" s="45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C27" s="18" t="n">
         <v>0.8125</v>
       </c>
-      <c r="D27" s="79" t="n"/>
-      <c r="E27" s="80" t="n"/>
-      <c r="F27" s="37" t="n"/>
-      <c r="G27" s="57" t="n"/>
-      <c r="H27" s="40" t="n"/>
-      <c r="I27" s="43" t="n"/>
-      <c r="J27" s="74" t="n"/>
-      <c r="K27" s="75" t="n"/>
-      <c r="L27" s="79" t="n"/>
-      <c r="M27" s="80" t="n"/>
-    </row>
-    <row r="28" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A28" s="81" t="n">
+      <c r="D27" s="23" t="n"/>
+      <c r="E27" s="24" t="n"/>
+      <c r="F27" s="31" t="n"/>
+      <c r="G27" s="22" t="n"/>
+      <c r="H27" s="31" t="n"/>
+      <c r="I27" s="32" t="n"/>
+      <c r="J27" s="29" t="n"/>
+      <c r="K27" s="30" t="n"/>
+      <c r="L27" s="23" t="n"/>
+      <c r="M27" s="24" t="n"/>
+    </row>
+    <row r="28" ht="15" customHeight="1" thickBot="1">
+      <c r="A28" s="46" t="n">
         <v>0.8125</v>
       </c>
-      <c r="B28" s="82" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C28" s="83" t="n">
+      <c r="B28" s="47" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C28" s="48" t="n">
         <v>0.8333333333333334</v>
       </c>
-      <c r="D28" s="84" t="n"/>
-      <c r="E28" s="85" t="n"/>
-      <c r="F28" s="86" t="n"/>
-      <c r="G28" s="87" t="n"/>
-      <c r="H28" s="88" t="n"/>
-      <c r="I28" s="89" t="n"/>
-      <c r="J28" s="90" t="n"/>
-      <c r="K28" s="91" t="n"/>
-      <c r="L28" s="84" t="n"/>
-      <c r="M28" s="85" t="n"/>
+      <c r="D28" s="49" t="n"/>
+      <c r="E28" s="50" t="n"/>
+      <c r="F28" s="51" t="n"/>
+      <c r="G28" s="52" t="n"/>
+      <c r="H28" s="53" t="n"/>
+      <c r="I28" s="54" t="n"/>
+      <c r="J28" s="55" t="n"/>
+      <c r="K28" s="54" t="n"/>
+      <c r="L28" s="49" t="n"/>
+      <c r="M28" s="50" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1829,7 +2123,7 @@
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="H4:I4"/>
   </mergeCells>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" paperSize="9" scale="83"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Ergebnis.xlsx
+++ b/Ergebnis.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1860" yWindow="1860" windowWidth="14400" windowHeight="7360" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2620" yWindow="2620" windowWidth="14400" windowHeight="7360" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Wochenplan" sheetId="1" state="visible" r:id="rId1"/>
@@ -98,14 +98,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E2EFDA"/>
-        <bgColor rgb="00E2EFDA"/>
+        <fgColor rgb="00FFF2CC"/>
+        <bgColor rgb="00FFF2CC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFF2CC"/>
-        <bgColor rgb="00FFF2CC"/>
+        <fgColor rgb="00E2EFDA"/>
+        <bgColor rgb="00E2EFDA"/>
       </patternFill>
     </fill>
     <fill>
@@ -597,7 +597,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -762,6 +762,33 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="34" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="35" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="36" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="37" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="38" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="38" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="35" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="35" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -774,106 +801,52 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="36" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="35" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="39" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="39" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="34" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="36" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="40" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="40" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="37" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="38" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="39" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="41" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="41" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="38" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="38" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="35" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="34" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="35" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="36" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="39" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="39" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="34" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="35" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="40" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="40" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="41" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="36" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="40" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="40" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="37" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="38" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="40" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="40" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="39" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="41" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="41" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="38" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="40" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="40" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="40" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="41" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="36" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1454,9 +1427,15 @@
       </c>
       <c r="D7" s="19" t="n"/>
       <c r="E7" s="20" t="n"/>
-      <c r="F7" s="62" t="n"/>
+      <c r="F7" s="60" t="inlineStr">
+        <is>
+          <t>&amp; Chemie</t>
+        </is>
+      </c>
       <c r="G7" s="61" t="n"/>
-      <c r="H7" s="62" t="n"/>
+      <c r="H7" s="60" t="n">
+        <v/>
+      </c>
       <c r="I7" s="61" t="n"/>
       <c r="J7" s="19" t="n"/>
       <c r="K7" s="20" t="n"/>
@@ -1481,21 +1460,25 @@
       </c>
       <c r="D8" s="23" t="n"/>
       <c r="E8" s="24" t="n"/>
-      <c r="F8" s="63" t="inlineStr">
+      <c r="F8" s="62" t="inlineStr">
         <is>
           <t>G007</t>
         </is>
       </c>
-      <c r="G8" s="64" t="n"/>
-      <c r="H8" s="63" t="inlineStr">
+      <c r="G8" s="63" t="n"/>
+      <c r="H8" s="62" t="inlineStr">
         <is>
           <t>G007</t>
         </is>
       </c>
-      <c r="I8" s="65" t="n"/>
+      <c r="I8" s="64" t="n"/>
       <c r="J8" s="29" t="n"/>
       <c r="K8" s="30" t="n"/>
-      <c r="L8" s="62" t="n"/>
+      <c r="L8" s="60" t="inlineStr">
+        <is>
+          <t>&amp; Physik</t>
+        </is>
+      </c>
       <c r="M8" s="61" t="n"/>
     </row>
     <row r="9">
@@ -1518,7 +1501,7 @@
       <c r="I9" s="22" t="n"/>
       <c r="J9" s="31" t="n"/>
       <c r="K9" s="22" t="n"/>
-      <c r="L9" s="66" t="n"/>
+      <c r="L9" s="65" t="n"/>
       <c r="M9" s="61" t="n"/>
     </row>
     <row r="10">
@@ -1535,19 +1518,13 @@
       </c>
       <c r="D10" s="21" t="n"/>
       <c r="E10" s="22" t="n"/>
-      <c r="F10" s="67" t="inlineStr">
-        <is>
-          <t>&amp; Chemie</t>
-        </is>
-      </c>
+      <c r="F10" s="35" t="n"/>
       <c r="G10" s="32" t="n"/>
-      <c r="H10" s="68" t="n">
-        <v/>
-      </c>
+      <c r="H10" s="21" t="n"/>
       <c r="I10" s="22" t="n"/>
       <c r="J10" s="29" t="n"/>
       <c r="K10" s="30" t="n"/>
-      <c r="L10" s="62" t="n"/>
+      <c r="L10" s="66" t="n"/>
       <c r="M10" s="61" t="n"/>
     </row>
     <row r="11">
@@ -1564,22 +1541,22 @@
       </c>
       <c r="D11" s="29" t="n"/>
       <c r="E11" s="28" t="n"/>
-      <c r="F11" s="69" t="inlineStr">
+      <c r="F11" s="67" t="inlineStr">
         <is>
           <t>Paul Borgetto</t>
         </is>
       </c>
-      <c r="G11" s="70" t="n"/>
+      <c r="G11" s="68" t="n"/>
       <c r="H11" s="21" t="n"/>
       <c r="I11" s="32" t="n"/>
       <c r="J11" s="21" t="n"/>
       <c r="K11" s="22" t="n"/>
-      <c r="L11" s="63" t="inlineStr">
+      <c r="L11" s="62" t="inlineStr">
         <is>
           <t>G007</t>
         </is>
       </c>
-      <c r="M11" s="64" t="n"/>
+      <c r="M11" s="63" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="16" t="n">
@@ -1595,28 +1572,28 @@
       </c>
       <c r="D12" s="21" t="n"/>
       <c r="E12" s="22" t="n"/>
-      <c r="F12" s="71" t="inlineStr">
+      <c r="F12" s="69" t="inlineStr">
         <is>
           <t>Mathe 1+2</t>
         </is>
       </c>
-      <c r="G12" s="72" t="n"/>
-      <c r="H12" s="73" t="inlineStr">
+      <c r="G12" s="70" t="n"/>
+      <c r="H12" s="71" t="inlineStr">
         <is>
           <t>Lena Schmidt</t>
         </is>
       </c>
-      <c r="I12" s="74" t="inlineStr">
+      <c r="I12" s="72" t="inlineStr">
         <is>
           <t>Paul Borgetto</t>
         </is>
       </c>
-      <c r="J12" s="69" t="inlineStr">
+      <c r="J12" s="67" t="inlineStr">
         <is>
           <t>Paul Borgetto</t>
         </is>
       </c>
-      <c r="K12" s="75" t="n"/>
+      <c r="K12" s="73" t="n"/>
       <c r="L12" s="19" t="n"/>
       <c r="M12" s="20" t="n"/>
     </row>
@@ -1634,29 +1611,29 @@
       </c>
       <c r="D13" s="36" t="n"/>
       <c r="E13" s="37" t="n"/>
-      <c r="F13" s="76" t="n"/>
-      <c r="G13" s="77" t="n"/>
-      <c r="H13" s="78" t="inlineStr">
+      <c r="F13" s="69" t="inlineStr">
+        <is>
+          <t>&amp; Physik</t>
+        </is>
+      </c>
+      <c r="G13" s="74" t="n"/>
+      <c r="H13" s="75" t="inlineStr">
         <is>
           <t>Mathe</t>
         </is>
       </c>
-      <c r="I13" s="79" t="inlineStr">
+      <c r="I13" s="76" t="inlineStr">
         <is>
           <t>Mathe 1+2</t>
         </is>
       </c>
-      <c r="J13" s="71" t="inlineStr">
+      <c r="J13" s="69" t="inlineStr">
         <is>
           <t>Mathe 1+2</t>
         </is>
       </c>
-      <c r="K13" s="77" t="n"/>
-      <c r="L13" s="80" t="inlineStr">
-        <is>
-          <t>&amp; Physik</t>
-        </is>
-      </c>
+      <c r="K13" s="74" t="n"/>
+      <c r="L13" s="36" t="n"/>
       <c r="M13" s="37" t="n"/>
     </row>
     <row r="14">
@@ -1673,16 +1650,28 @@
       </c>
       <c r="D14" s="21" t="n"/>
       <c r="E14" s="22" t="n"/>
-      <c r="F14" s="81" t="inlineStr">
+      <c r="F14" s="77" t="inlineStr">
         <is>
           <t>online</t>
         </is>
       </c>
-      <c r="G14" s="82" t="n"/>
-      <c r="H14" s="83" t="n"/>
-      <c r="I14" s="84" t="n"/>
-      <c r="J14" s="76" t="n"/>
-      <c r="K14" s="72" t="n"/>
+      <c r="G14" s="78" t="n"/>
+      <c r="H14" s="75" t="inlineStr">
+        <is>
+          <t>alle Semester</t>
+        </is>
+      </c>
+      <c r="I14" s="76" t="inlineStr">
+        <is>
+          <t>&amp; Physik</t>
+        </is>
+      </c>
+      <c r="J14" s="69" t="inlineStr">
+        <is>
+          <t>&amp; Physik</t>
+        </is>
+      </c>
+      <c r="K14" s="70" t="n"/>
       <c r="L14" s="31" t="n"/>
       <c r="M14" s="22" t="n"/>
     </row>
@@ -1700,32 +1689,32 @@
       </c>
       <c r="D15" s="21" t="n"/>
       <c r="E15" s="22" t="n"/>
-      <c r="F15" s="73" t="inlineStr">
+      <c r="F15" s="71" t="inlineStr">
         <is>
           <t>Marco Hübner</t>
         </is>
       </c>
-      <c r="G15" s="85" t="inlineStr">
+      <c r="G15" s="79" t="inlineStr">
         <is>
           <t>Màrton Vörös</t>
         </is>
       </c>
-      <c r="H15" s="86" t="inlineStr">
+      <c r="H15" s="80" t="inlineStr">
         <is>
           <t>G007</t>
         </is>
       </c>
-      <c r="I15" s="87" t="inlineStr">
+      <c r="I15" s="81" t="inlineStr">
         <is>
           <t>online</t>
         </is>
       </c>
-      <c r="J15" s="81" t="inlineStr">
+      <c r="J15" s="77" t="inlineStr">
         <is>
           <t>online</t>
         </is>
       </c>
-      <c r="K15" s="88" t="n"/>
+      <c r="K15" s="82" t="n"/>
       <c r="L15" s="34" t="n"/>
       <c r="M15" s="22" t="n"/>
     </row>
@@ -1743,12 +1732,12 @@
       </c>
       <c r="D16" s="38" t="n"/>
       <c r="E16" s="39" t="n"/>
-      <c r="F16" s="78" t="inlineStr">
-        <is>
-          <t>&amp; Physik</t>
-        </is>
-      </c>
-      <c r="G16" s="89" t="inlineStr">
+      <c r="F16" s="75" t="inlineStr">
+        <is>
+          <t>Mathe 1+2</t>
+        </is>
+      </c>
+      <c r="G16" s="83" t="inlineStr">
         <is>
           <t>Finanzmathe</t>
         </is>
@@ -1774,16 +1763,22 @@
       </c>
       <c r="D17" s="21" t="n"/>
       <c r="E17" s="22" t="n"/>
-      <c r="F17" s="83" t="n"/>
-      <c r="G17" s="90" t="n"/>
-      <c r="H17" s="74" t="inlineStr">
+      <c r="F17" s="75" t="inlineStr">
+        <is>
+          <t>&amp; Physik, Chemie</t>
+        </is>
+      </c>
+      <c r="G17" s="83" t="n">
+        <v/>
+      </c>
+      <c r="H17" s="71" t="inlineStr">
+        <is>
+          <t>Michelle Kogler</t>
+        </is>
+      </c>
+      <c r="I17" s="72" t="inlineStr">
         <is>
           <t>Màrton Vörös</t>
-        </is>
-      </c>
-      <c r="I17" s="73" t="inlineStr">
-        <is>
-          <t>Michelle Kogler</t>
         </is>
       </c>
       <c r="J17" s="58" t="inlineStr">
@@ -1813,28 +1808,28 @@
       </c>
       <c r="D18" s="31" t="n"/>
       <c r="E18" s="32" t="n"/>
-      <c r="F18" s="91" t="n"/>
-      <c r="G18" s="92" t="inlineStr">
+      <c r="F18" s="84" t="n"/>
+      <c r="G18" s="85" t="inlineStr">
         <is>
           <t>II-02</t>
         </is>
       </c>
-      <c r="H18" s="79" t="inlineStr">
+      <c r="H18" s="75" t="inlineStr">
+        <is>
+          <t>Mathe 1+2</t>
+        </is>
+      </c>
+      <c r="I18" s="76" t="inlineStr">
         <is>
           <t>Finanzmathe</t>
         </is>
       </c>
-      <c r="I18" s="78" t="inlineStr">
-        <is>
-          <t>Mathe 1+2</t>
-        </is>
-      </c>
       <c r="J18" s="60" t="inlineStr">
         <is>
           <t>Mathe</t>
         </is>
       </c>
-      <c r="K18" s="93" t="n"/>
+      <c r="K18" s="86" t="n"/>
       <c r="L18" s="60" t="inlineStr">
         <is>
           <t>Mathe 1+2</t>
@@ -1856,17 +1851,27 @@
       </c>
       <c r="D19" s="42" t="n"/>
       <c r="E19" s="43" t="n"/>
-      <c r="F19" s="86" t="inlineStr">
+      <c r="F19" s="80" t="inlineStr">
         <is>
           <t>G007</t>
         </is>
       </c>
       <c r="G19" s="44" t="n"/>
-      <c r="H19" s="84" t="n"/>
-      <c r="I19" s="91" t="n"/>
-      <c r="J19" s="62" t="n"/>
+      <c r="H19" s="75" t="n">
+        <v/>
+      </c>
+      <c r="I19" s="76" t="n">
+        <v/>
+      </c>
+      <c r="J19" s="60" t="inlineStr">
+        <is>
+          <t>alle Semester</t>
+        </is>
+      </c>
       <c r="K19" s="61" t="n"/>
-      <c r="L19" s="62" t="n"/>
+      <c r="L19" s="60" t="n">
+        <v/>
+      </c>
       <c r="M19" s="61" t="n"/>
     </row>
     <row r="20">
@@ -1884,31 +1889,29 @@
       <c r="D20" s="19" t="n"/>
       <c r="E20" s="20" t="n"/>
       <c r="F20" s="31" t="n"/>
-      <c r="G20" s="94" t="n">
-        <v/>
-      </c>
-      <c r="H20" s="87" t="inlineStr">
+      <c r="G20" s="32" t="n"/>
+      <c r="H20" s="80" t="inlineStr">
+        <is>
+          <t>G007</t>
+        </is>
+      </c>
+      <c r="I20" s="81" t="inlineStr">
         <is>
           <t>online</t>
         </is>
       </c>
-      <c r="I20" s="86" t="inlineStr">
+      <c r="J20" s="62" t="inlineStr">
         <is>
           <t>G007</t>
         </is>
       </c>
-      <c r="J20" s="63" t="inlineStr">
+      <c r="K20" s="63" t="n"/>
+      <c r="L20" s="62" t="inlineStr">
         <is>
           <t>G007</t>
         </is>
       </c>
-      <c r="K20" s="64" t="n"/>
-      <c r="L20" s="63" t="inlineStr">
-        <is>
-          <t>G007</t>
-        </is>
-      </c>
-      <c r="M20" s="64" t="n"/>
+      <c r="M20" s="63" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="16" t="n">
@@ -1924,11 +1927,7 @@
       </c>
       <c r="D21" s="19" t="n"/>
       <c r="E21" s="20" t="n"/>
-      <c r="F21" s="80" t="inlineStr">
-        <is>
-          <t>&amp; Physik, Chemie</t>
-        </is>
-      </c>
+      <c r="F21" s="38" t="n"/>
       <c r="G21" s="37" t="n"/>
       <c r="H21" s="21" t="n"/>
       <c r="I21" s="37" t="n"/>
@@ -1953,21 +1952,11 @@
       <c r="E22" s="20" t="n"/>
       <c r="F22" s="21" t="n"/>
       <c r="G22" s="32" t="n"/>
-      <c r="H22" s="80" t="n">
-        <v/>
-      </c>
-      <c r="I22" s="94" t="n">
-        <v/>
-      </c>
-      <c r="J22" s="80" t="inlineStr">
-        <is>
-          <t>alle Semester</t>
-        </is>
-      </c>
+      <c r="H22" s="36" t="n"/>
+      <c r="I22" s="22" t="n"/>
+      <c r="J22" s="36" t="n"/>
       <c r="K22" s="37" t="n"/>
-      <c r="L22" s="95" t="n">
-        <v/>
-      </c>
+      <c r="L22" s="19" t="n"/>
       <c r="M22" s="20" t="n"/>
     </row>
     <row r="23">
